--- a/BackTest/2019-10-29 BackTest CHR.xlsx
+++ b/BackTest/2019-10-29 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>2249</v>
       </c>
       <c r="G2" t="n">
-        <v>-470251.2606672801</v>
+        <v>26.86</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>2169</v>
       </c>
       <c r="G3" t="n">
-        <v>-470251.2606672801</v>
+        <v>26.84</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>2171</v>
       </c>
       <c r="G4" t="n">
-        <v>-470251.2606672801</v>
+        <v>26.82</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>2117</v>
       </c>
       <c r="G5" t="n">
-        <v>-470251.2606672801</v>
+        <v>26.81</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>2135</v>
       </c>
       <c r="G6" t="n">
-        <v>-470251.2606672801</v>
+        <v>26.81</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>40213.4543</v>
       </c>
       <c r="G7" t="n">
-        <v>-470251.2606672801</v>
+        <v>26.81</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>4711</v>
       </c>
       <c r="G8" t="n">
-        <v>-470251.2606672801</v>
+        <v>26.79</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>49.6301</v>
       </c>
       <c r="G9" t="n">
-        <v>-470201.6305672801</v>
+        <v>26.79500000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>14990.9688</v>
       </c>
       <c r="G10" t="n">
-        <v>-470201.6305672801</v>
+        <v>26.79000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>6664.2832</v>
       </c>
       <c r="G11" t="n">
-        <v>-470201.6305672801</v>
+        <v>26.79500000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-470211.6305672801</v>
+        <v>26.79000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>67.8481</v>
       </c>
       <c r="G13" t="n">
-        <v>-470143.7824672801</v>
+        <v>26.80000000000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>4190.3799</v>
       </c>
       <c r="G14" t="n">
-        <v>-474334.1623672801</v>
+        <v>26.79500000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>27484.1175</v>
       </c>
       <c r="G15" t="n">
-        <v>-474334.1623672801</v>
+        <v>26.79000000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>1611.0459</v>
       </c>
       <c r="G16" t="n">
-        <v>-472723.1164672801</v>
+        <v>26.80000000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>129.1449</v>
       </c>
       <c r="G17" t="n">
-        <v>-472723.1164672801</v>
+        <v>26.81000000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>19229.2073</v>
       </c>
       <c r="G18" t="n">
-        <v>-472723.1164672801</v>
+        <v>26.80500000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>18646.662</v>
       </c>
       <c r="G19" t="n">
-        <v>-491369.7784672801</v>
+        <v>26.80000000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>4947.5671</v>
       </c>
       <c r="G20" t="n">
-        <v>-491369.7784672801</v>
+        <v>26.80000000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>42.3944</v>
       </c>
       <c r="G21" t="n">
-        <v>-491327.3840672801</v>
+        <v>26.80500000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>16436.8518</v>
       </c>
       <c r="G22" t="n">
-        <v>-491327.3840672801</v>
+        <v>26.82000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>-491327.3840672801</v>
+        <v>26.83500000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>1376.4574</v>
       </c>
       <c r="G24" t="n">
-        <v>-491327.3840672801</v>
+        <v>26.85000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>754.5555000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-491327.3840672801</v>
+        <v>26.86500000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>78545.16250000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-569872.5465672801</v>
+        <v>26.87</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>-569847.5465672801</v>
+        <v>26.86000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>12.3333</v>
       </c>
       <c r="G28" t="n">
-        <v>-569835.21326728</v>
+        <v>26.87500000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>24025.6327</v>
       </c>
       <c r="G29" t="n">
-        <v>-593860.84596728</v>
+        <v>26.86500000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>-592860.84596728</v>
+        <v>26.87500000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>3113.5065</v>
       </c>
       <c r="G31" t="n">
-        <v>-595974.35246728</v>
+        <v>26.86000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>12.3791</v>
       </c>
       <c r="G32" t="n">
-        <v>-595961.97336728</v>
+        <v>26.87</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>3177.0262</v>
       </c>
       <c r="G33" t="n">
-        <v>-595961.97336728</v>
+        <v>26.865</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>33336.3696</v>
       </c>
       <c r="G34" t="n">
-        <v>-562625.60376728</v>
+        <v>26.88</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>43409.6646</v>
       </c>
       <c r="G35" t="n">
-        <v>-519215.93916728</v>
+        <v>26.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>1406.8044</v>
       </c>
       <c r="G36" t="n">
-        <v>-520622.74356728</v>
+        <v>26.91</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>3473.8094</v>
       </c>
       <c r="G37" t="n">
-        <v>-524096.55296728</v>
+        <v>26.915</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>400</v>
       </c>
       <c r="G38" t="n">
-        <v>-524496.55296728</v>
+        <v>26.90500000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>9580.7613</v>
       </c>
       <c r="G39" t="n">
-        <v>-524496.55296728</v>
+        <v>26.89500000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>9191.7376</v>
       </c>
       <c r="G40" t="n">
-        <v>-533688.29056728</v>
+        <v>26.89000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>4908.0093</v>
       </c>
       <c r="G41" t="n">
-        <v>-528780.28126728</v>
+        <v>26.89000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>10400</v>
       </c>
       <c r="G42" t="n">
-        <v>-528780.28126728</v>
+        <v>26.89500000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>23174.8134</v>
       </c>
       <c r="G43" t="n">
-        <v>-528780.28126728</v>
+        <v>26.90000000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>16425.1866</v>
       </c>
       <c r="G44" t="n">
-        <v>-528780.28126728</v>
+        <v>26.90500000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,7 +2001,7 @@
         <v>872.2239</v>
       </c>
       <c r="G45" t="n">
-        <v>-527908.05736728</v>
+        <v>26.90500000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>21862.2295</v>
       </c>
       <c r="G46" t="n">
-        <v>-549770.28686728</v>
+        <v>26.91500000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>6844.1405</v>
       </c>
       <c r="G47" t="n">
-        <v>-556614.42736728</v>
+        <v>26.92000000000002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>9328.358200000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-556614.42736728</v>
+        <v>26.91000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>9184.6849</v>
       </c>
       <c r="G49" t="n">
-        <v>-556614.42736728</v>
+        <v>26.91500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>54.6788</v>
       </c>
       <c r="G50" t="n">
-        <v>-556614.42736728</v>
+        <v>26.91000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>193489.334</v>
       </c>
       <c r="G51" t="n">
-        <v>-363125.09336728</v>
+        <v>26.93500000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>113000</v>
       </c>
       <c r="G52" t="n">
-        <v>-250125.09336728</v>
+        <v>27.02000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>71909.87880000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-250125.09336728</v>
+        <v>27.14000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2325,7 @@
         <v>65.5421</v>
       </c>
       <c r="G54" t="n">
-        <v>-250190.63546728</v>
+        <v>27.24000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2361,7 @@
         <v>96838.25124368</v>
       </c>
       <c r="G55" t="n">
-        <v>-347028.88671096</v>
+        <v>27.42000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,7 +2397,7 @@
         <v>87764.87179999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-434793.7585109599</v>
+        <v>27.54500000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,7 +2433,7 @@
         <v>24936.3428</v>
       </c>
       <c r="G57" t="n">
-        <v>-409857.4157109599</v>
+        <v>27.67000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,7 +2469,7 @@
         <v>144819.8094</v>
       </c>
       <c r="G58" t="n">
-        <v>-554677.22511096</v>
+        <v>27.79500000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>131537.9721</v>
       </c>
       <c r="G59" t="n">
-        <v>-686215.19721096</v>
+        <v>27.87000000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,7 +2541,7 @@
         <v>95061.9424</v>
       </c>
       <c r="G60" t="n">
-        <v>-686215.19721096</v>
+        <v>27.94500000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2513,7 +2577,7 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-686225.19721096</v>
+        <v>28.04000000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2548,7 +2613,7 @@
         <v>22.25</v>
       </c>
       <c r="G62" t="n">
-        <v>-686247.44721096</v>
+        <v>28.14000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,7 +2649,7 @@
         <v>212127.4133</v>
       </c>
       <c r="G63" t="n">
-        <v>-898374.86051096</v>
+        <v>28.18000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2618,7 +2685,7 @@
         <v>91936.3606</v>
       </c>
       <c r="G64" t="n">
-        <v>-806438.49991096</v>
+        <v>28.18000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,7 +2721,7 @@
         <v>58449.2512</v>
       </c>
       <c r="G65" t="n">
-        <v>-864887.75111096</v>
+        <v>28.195</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,7 +2757,7 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>-864876.75111096</v>
+        <v>28.23000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,7 +2793,7 @@
         <v>57186.0218</v>
       </c>
       <c r="G67" t="n">
-        <v>-922062.77291096</v>
+        <v>28.24000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,7 +2829,7 @@
         <v>27538.6264</v>
       </c>
       <c r="G68" t="n">
-        <v>-894524.1465109601</v>
+        <v>28.25500000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,7 +2865,7 @@
         <v>40328.3794</v>
       </c>
       <c r="G69" t="n">
-        <v>-894524.1465109601</v>
+        <v>28.29000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2828,7 +2901,7 @@
         <v>54080.2362</v>
       </c>
       <c r="G70" t="n">
-        <v>-948604.3827109601</v>
+        <v>28.31000000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2863,7 +2937,7 @@
         <v>15882.95</v>
       </c>
       <c r="G71" t="n">
-        <v>-948604.3827109601</v>
+        <v>28.30500000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2898,7 +2973,7 @@
         <v>1161.3085</v>
       </c>
       <c r="G72" t="n">
-        <v>-949765.6912109602</v>
+        <v>28.21500000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2933,7 +3009,7 @@
         <v>672.422</v>
       </c>
       <c r="G73" t="n">
-        <v>-949765.6912109602</v>
+        <v>28.09000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2968,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>-949755.6912109602</v>
+        <v>28.01000000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3003,7 +3081,7 @@
         <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>-950755.6912109602</v>
+        <v>27.81500000000001</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -3021,6 +3099,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3042,7 +3121,7 @@
         <v>2126.9704</v>
       </c>
       <c r="G76" t="n">
-        <v>-948628.7208109602</v>
+        <v>27.675</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -3064,6 +3143,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3085,7 +3165,7 @@
         <v>3106.9704</v>
       </c>
       <c r="G77" t="n">
-        <v>-951735.6912109602</v>
+        <v>27.55500000000001</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3107,6 +3187,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3128,7 +3209,7 @@
         <v>98683.4145</v>
       </c>
       <c r="G78" t="n">
-        <v>-1050419.10571096</v>
+        <v>27.435</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3148,6 +3229,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3169,7 +3251,7 @@
         <v>716.6068</v>
       </c>
       <c r="G79" t="n">
-        <v>-1049702.49891096</v>
+        <v>27.36</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3189,6 +3271,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3210,7 +3293,7 @@
         <v>40205.6134</v>
       </c>
       <c r="G80" t="n">
-        <v>-1049702.49891096</v>
+        <v>27.29</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3230,6 +3313,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3251,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-1049692.49891096</v>
+        <v>27.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3271,6 +3355,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3292,7 +3377,7 @@
         <v>528</v>
       </c>
       <c r="G82" t="n">
-        <v>-1050220.49891096</v>
+        <v>27.09</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3312,6 +3397,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3333,7 +3419,7 @@
         <v>61438.8253</v>
       </c>
       <c r="G83" t="n">
-        <v>-1111659.32421096</v>
+        <v>27.03</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3353,6 +3439,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3374,7 +3461,7 @@
         <v>519.4372</v>
       </c>
       <c r="G84" t="n">
-        <v>-1111139.88701096</v>
+        <v>27.03</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3394,6 +3481,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3415,7 +3503,7 @@
         <v>3150.238</v>
       </c>
       <c r="G85" t="n">
-        <v>-1107989.64901096</v>
+        <v>27.02</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3435,6 +3523,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3456,7 +3545,7 @@
         <v>2030.2551</v>
       </c>
       <c r="G86" t="n">
-        <v>-1110019.90411096</v>
+        <v>26.99</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3476,6 +3565,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3497,7 +3587,7 @@
         <v>23351.0306</v>
       </c>
       <c r="G87" t="n">
-        <v>-1086668.87351096</v>
+        <v>27.00000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3517,6 +3607,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3538,7 +3629,7 @@
         <v>3076.7153</v>
       </c>
       <c r="G88" t="n">
-        <v>-1089745.58881096</v>
+        <v>26.985</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3558,6 +3649,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3579,7 +3671,7 @@
         <v>5322</v>
       </c>
       <c r="G89" t="n">
-        <v>-1084423.58881096</v>
+        <v>26.975</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3599,6 +3691,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3620,7 +3713,7 @@
         <v>123.5241</v>
       </c>
       <c r="G90" t="n">
-        <v>-1084300.06471096</v>
+        <v>27.04</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3640,6 +3733,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3661,7 +3755,7 @@
         <v>7948.1456</v>
       </c>
       <c r="G91" t="n">
-        <v>-1092248.21031096</v>
+        <v>27.055</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3681,6 +3775,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3702,7 +3797,7 @@
         <v>2772.7272</v>
       </c>
       <c r="G92" t="n">
-        <v>-1089475.48311096</v>
+        <v>27.09</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3722,6 +3817,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3743,7 +3839,7 @@
         <v>18533.6039</v>
       </c>
       <c r="G93" t="n">
-        <v>-1108009.08701096</v>
+        <v>27.135</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3763,6 +3859,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3784,7 +3881,7 @@
         <v>28599.7452</v>
       </c>
       <c r="G94" t="n">
-        <v>-1079409.34181096</v>
+        <v>27.12500000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3804,6 +3901,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3825,7 +3923,7 @@
         <v>7493.9607</v>
       </c>
       <c r="G95" t="n">
-        <v>-1086903.30251096</v>
+        <v>27.15000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3845,6 +3943,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3866,7 +3965,7 @@
         <v>567.6599</v>
       </c>
       <c r="G96" t="n">
-        <v>-1087470.96241096</v>
+        <v>27.16500000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3886,6 +3985,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3907,7 +4007,7 @@
         <v>87811.5907</v>
       </c>
       <c r="G97" t="n">
-        <v>-999659.3717109601</v>
+        <v>27.16500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3927,6 +4027,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3948,7 +4049,7 @@
         <v>37516.0331</v>
       </c>
       <c r="G98" t="n">
-        <v>-1037175.40481096</v>
+        <v>27.20000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3968,6 +4069,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3989,7 +4091,7 @@
         <v>16062</v>
       </c>
       <c r="G99" t="n">
-        <v>-1021113.40481096</v>
+        <v>27.24500000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4009,6 +4111,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4030,7 +4133,7 @@
         <v>16062</v>
       </c>
       <c r="G100" t="n">
-        <v>-1037175.40481096</v>
+        <v>27.28000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4050,6 +4153,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4071,7 +4175,7 @@
         <v>38672.1014</v>
       </c>
       <c r="G101" t="n">
-        <v>-998503.30341096</v>
+        <v>27.30500000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4091,6 +4195,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4112,7 +4217,7 @@
         <v>20.8791</v>
       </c>
       <c r="G102" t="n">
-        <v>-998524.18251096</v>
+        <v>27.32500000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4132,6 +4237,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4153,7 +4259,7 @@
         <v>13338.5395</v>
       </c>
       <c r="G103" t="n">
-        <v>-985185.6430109601</v>
+        <v>27.35500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4173,6 +4279,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4194,7 +4301,7 @@
         <v>5942.8685</v>
       </c>
       <c r="G104" t="n">
-        <v>-991128.5115109601</v>
+        <v>27.365</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4214,6 +4321,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4235,7 +4343,7 @@
         <v>90149.6972</v>
       </c>
       <c r="G105" t="n">
-        <v>-1081278.20871096</v>
+        <v>27.355</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4255,6 +4363,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4276,7 +4385,7 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-1081268.20871096</v>
+        <v>27.37</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4296,6 +4405,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4317,7 +4427,7 @@
         <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>-1082268.20871096</v>
+        <v>27.345</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4337,6 +4447,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4358,7 +4469,7 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-1082258.20871096</v>
+        <v>27.35</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4378,6 +4489,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4399,7 +4511,7 @@
         <v>13947.7345</v>
       </c>
       <c r="G109" t="n">
-        <v>-1096205.94321096</v>
+        <v>27.325</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4419,6 +4531,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4440,7 +4553,7 @@
         <v>5400.0966</v>
       </c>
       <c r="G110" t="n">
-        <v>-1090805.84661096</v>
+        <v>27.245</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4460,6 +4573,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4481,7 +4595,7 @@
         <v>25398.6295</v>
       </c>
       <c r="G111" t="n">
-        <v>-1065407.21711096</v>
+        <v>27.225</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4501,6 +4615,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4522,7 +4637,7 @@
         <v>2555.3765</v>
       </c>
       <c r="G112" t="n">
-        <v>-1065407.21711096</v>
+        <v>27.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4542,6 +4657,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest CHR.xlsx
+++ b/BackTest/2019-10-29 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C2" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="D2" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="E2" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F2" t="n">
-        <v>2249</v>
+        <v>16018.9524</v>
       </c>
       <c r="G2" t="n">
-        <v>26.86</v>
+        <v>-336797.7322672801</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="C3" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="E3" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="F3" t="n">
-        <v>2169</v>
+        <v>8155.1407</v>
       </c>
       <c r="G3" t="n">
-        <v>26.84</v>
+        <v>-336797.7322672801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="C4" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="D4" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="E4" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="F4" t="n">
-        <v>2171</v>
+        <v>9096.7747</v>
       </c>
       <c r="G4" t="n">
-        <v>26.82</v>
+        <v>-336797.7322672801</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="D5" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="E5" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="F5" t="n">
-        <v>2117</v>
+        <v>4100.4016</v>
       </c>
       <c r="G5" t="n">
-        <v>26.81</v>
+        <v>-336797.7322672801</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="C6" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D6" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="E6" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F6" t="n">
-        <v>2135</v>
+        <v>290</v>
       </c>
       <c r="G6" t="n">
-        <v>26.81</v>
+        <v>-337087.7322672801</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -621,19 +621,19 @@
         <v>26.9</v>
       </c>
       <c r="C7" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D7" t="n">
         <v>26.9</v>
       </c>
       <c r="E7" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F7" t="n">
-        <v>40213.4543</v>
+        <v>59.8107</v>
       </c>
       <c r="G7" t="n">
-        <v>26.81</v>
+        <v>-337087.7322672801</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C8" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D8" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E8" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F8" t="n">
-        <v>4711</v>
+        <v>1296.8252</v>
       </c>
       <c r="G8" t="n">
-        <v>26.79</v>
+        <v>-337087.7322672801</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>26.9</v>
       </c>
       <c r="F9" t="n">
-        <v>49.6301</v>
+        <v>5291.8982</v>
       </c>
       <c r="G9" t="n">
-        <v>26.79500000000001</v>
+        <v>-337087.7322672801</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,32 +726,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="E10" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F10" t="n">
-        <v>14990.9688</v>
+        <v>25.8175</v>
       </c>
       <c r="G10" t="n">
-        <v>26.79000000000001</v>
+        <v>-337061.91476728</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>26.9</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +768,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9</v>
+        <v>27.4</v>
       </c>
       <c r="F11" t="n">
-        <v>6664.2832</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>26.79500000000001</v>
+        <v>-337061.91476728</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -787,7 +793,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +808,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="C12" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="E12" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>4072.1459</v>
       </c>
       <c r="G12" t="n">
-        <v>26.79000000000001</v>
+        <v>-341134.06066728</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,7 +833,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +848,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E13" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="F13" t="n">
-        <v>67.8481</v>
+        <v>72181.9578</v>
       </c>
       <c r="G13" t="n">
-        <v>26.80000000000002</v>
+        <v>-341134.06066728</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +873,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +888,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C14" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="D14" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E14" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F14" t="n">
-        <v>4190.3799</v>
+        <v>18294.4276</v>
       </c>
       <c r="G14" t="n">
-        <v>26.79500000000002</v>
+        <v>-359428.48826728</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -895,7 +913,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -918,10 +940,10 @@
         <v>26.7</v>
       </c>
       <c r="F15" t="n">
-        <v>27484.1175</v>
+        <v>4885.9243</v>
       </c>
       <c r="G15" t="n">
-        <v>26.79000000000003</v>
+        <v>-364314.4125672801</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -931,7 +953,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -954,10 +980,10 @@
         <v>26.9</v>
       </c>
       <c r="F16" t="n">
-        <v>1611.0459</v>
+        <v>25000</v>
       </c>
       <c r="G16" t="n">
-        <v>26.80000000000002</v>
+        <v>-339314.4125672801</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,7 +993,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1008,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C17" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="D17" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E17" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="F17" t="n">
-        <v>129.1449</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>26.81000000000002</v>
+        <v>-339302.4125672801</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1033,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1048,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="C18" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D18" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E18" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F18" t="n">
-        <v>19229.2073</v>
+        <v>50397.9696</v>
       </c>
       <c r="G18" t="n">
-        <v>26.80500000000002</v>
+        <v>-389700.3821672801</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1073,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1088,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="C19" t="n">
         <v>26.8</v>
       </c>
       <c r="D19" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E19" t="n">
         <v>26.8</v>
       </c>
       <c r="F19" t="n">
-        <v>18646.662</v>
+        <v>16.4552</v>
       </c>
       <c r="G19" t="n">
-        <v>26.80000000000002</v>
+        <v>-389700.3821672801</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1113,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1098,10 +1140,10 @@
         <v>26.8</v>
       </c>
       <c r="F20" t="n">
-        <v>4947.5671</v>
+        <v>7647.9104</v>
       </c>
       <c r="G20" t="n">
-        <v>26.80000000000002</v>
+        <v>-389700.3821672801</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1153,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1168,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="F21" t="n">
-        <v>42.3944</v>
+        <v>20619.8507</v>
       </c>
       <c r="G21" t="n">
-        <v>26.80500000000002</v>
+        <v>-389700.3821672801</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1193,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1208,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="F22" t="n">
-        <v>16436.8518</v>
+        <v>37489.1305</v>
       </c>
       <c r="G22" t="n">
-        <v>26.82000000000001</v>
+        <v>-389700.3821672801</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1233,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1248,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>17383.4803</v>
       </c>
       <c r="G23" t="n">
-        <v>26.83500000000002</v>
+        <v>-389700.3821672801</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1273,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="F24" t="n">
-        <v>1376.4574</v>
+        <v>31180.8966</v>
       </c>
       <c r="G24" t="n">
-        <v>26.85000000000001</v>
+        <v>-389700.3821672801</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1313,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1328,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="C25" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="F25" t="n">
-        <v>754.5555000000001</v>
+        <v>35422.5001</v>
       </c>
       <c r="G25" t="n">
-        <v>26.86500000000001</v>
+        <v>-425122.8822672801</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1353,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1368,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C26" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D26" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E26" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F26" t="n">
-        <v>78545.16250000001</v>
+        <v>99660.4958</v>
       </c>
       <c r="G26" t="n">
-        <v>26.87</v>
+        <v>-425122.8822672801</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1410,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>25</v>
+        <v>879.6296</v>
       </c>
       <c r="G27" t="n">
-        <v>26.86000000000001</v>
+        <v>-424243.2526672801</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1435,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1386,10 +1462,10 @@
         <v>27</v>
       </c>
       <c r="F28" t="n">
-        <v>12.3333</v>
+        <v>1508.3444</v>
       </c>
       <c r="G28" t="n">
-        <v>26.87500000000001</v>
+        <v>-424243.2526672801</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1475,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1490,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C29" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D29" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E29" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F29" t="n">
-        <v>24025.6327</v>
+        <v>45087.5005</v>
       </c>
       <c r="G29" t="n">
-        <v>26.86500000000001</v>
+        <v>-469330.7531672801</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1515,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1458,10 +1542,10 @@
         <v>26.9</v>
       </c>
       <c r="F30" t="n">
-        <v>1000</v>
+        <v>1328.4925</v>
       </c>
       <c r="G30" t="n">
-        <v>26.87500000000001</v>
+        <v>-468002.2606672801</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1555,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1570,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="C31" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D31" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E31" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F31" t="n">
-        <v>3113.5065</v>
+        <v>2249</v>
       </c>
       <c r="G31" t="n">
-        <v>26.86000000000001</v>
+        <v>-470251.2606672801</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1595,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1610,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C32" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="D32" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E32" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F32" t="n">
-        <v>12.3791</v>
+        <v>2169</v>
       </c>
       <c r="G32" t="n">
-        <v>26.87</v>
+        <v>-470251.2606672801</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1635,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1650,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C33" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="D33" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E33" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F33" t="n">
-        <v>3177.0262</v>
+        <v>2171</v>
       </c>
       <c r="G33" t="n">
-        <v>26.865</v>
+        <v>-470251.2606672801</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1675,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1690,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="C34" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D34" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E34" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="F34" t="n">
-        <v>33336.3696</v>
+        <v>2117</v>
       </c>
       <c r="G34" t="n">
-        <v>26.88</v>
+        <v>-470251.2606672801</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1715,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1730,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="C35" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="D35" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E35" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F35" t="n">
-        <v>43409.6646</v>
+        <v>2135</v>
       </c>
       <c r="G35" t="n">
-        <v>26.9</v>
+        <v>-470251.2606672801</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1755,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1770,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="C36" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D36" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="E36" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F36" t="n">
-        <v>1406.8044</v>
+        <v>40213.4543</v>
       </c>
       <c r="G36" t="n">
-        <v>26.91</v>
+        <v>-470251.2606672801</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1812,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="C37" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D37" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E37" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F37" t="n">
-        <v>3473.8094</v>
+        <v>4711</v>
       </c>
       <c r="G37" t="n">
-        <v>26.915</v>
+        <v>-470251.2606672801</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1854,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C38" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D38" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E38" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F38" t="n">
-        <v>400</v>
+        <v>49.6301</v>
       </c>
       <c r="G38" t="n">
-        <v>26.90500000000001</v>
+        <v>-470201.6305672801</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1773,19 +1899,19 @@
         <v>26.7</v>
       </c>
       <c r="C39" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="D39" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E39" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F39" t="n">
-        <v>9580.7613</v>
+        <v>14990.9688</v>
       </c>
       <c r="G39" t="n">
-        <v>26.89500000000001</v>
+        <v>-470201.6305672801</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1921,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1936,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C40" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="D40" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="E40" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="F40" t="n">
-        <v>9191.7376</v>
+        <v>6664.2832</v>
       </c>
       <c r="G40" t="n">
-        <v>26.89000000000001</v>
+        <v>-470201.6305672801</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1831,7 +1961,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1976,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="C41" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D41" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E41" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="F41" t="n">
-        <v>4908.0093</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>26.89000000000001</v>
+        <v>-470211.6305672801</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1867,7 +2001,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2016,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C42" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E42" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F42" t="n">
-        <v>10400</v>
+        <v>67.8481</v>
       </c>
       <c r="G42" t="n">
-        <v>26.89500000000002</v>
+        <v>-470143.7824672801</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1903,7 +2041,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2056,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="C43" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D43" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E43" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F43" t="n">
-        <v>23174.8134</v>
+        <v>4190.3799</v>
       </c>
       <c r="G43" t="n">
-        <v>26.90000000000002</v>
+        <v>-474334.1623672801</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +2081,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2096,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="C44" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D44" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E44" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F44" t="n">
-        <v>16425.1866</v>
+        <v>27484.1175</v>
       </c>
       <c r="G44" t="n">
-        <v>26.90500000000002</v>
+        <v>-474334.1623672801</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2121,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2136,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C45" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D45" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E45" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="F45" t="n">
-        <v>872.2239</v>
+        <v>1611.0459</v>
       </c>
       <c r="G45" t="n">
-        <v>26.90500000000002</v>
+        <v>-472723.1164672801</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2011,7 +2161,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2176,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C46" t="n">
         <v>26.9</v>
       </c>
       <c r="D46" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E46" t="n">
         <v>26.9</v>
       </c>
       <c r="F46" t="n">
-        <v>21862.2295</v>
+        <v>129.1449</v>
       </c>
       <c r="G46" t="n">
-        <v>26.91500000000002</v>
+        <v>-472723.1164672801</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2201,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2216,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="C47" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D47" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E47" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="F47" t="n">
-        <v>6844.1405</v>
+        <v>19229.2073</v>
       </c>
       <c r="G47" t="n">
-        <v>26.92000000000002</v>
+        <v>-472723.1164672801</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2241,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2256,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="C48" t="n">
         <v>26.8</v>
       </c>
       <c r="D48" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E48" t="n">
         <v>26.8</v>
       </c>
       <c r="F48" t="n">
-        <v>9328.358200000001</v>
+        <v>18646.662</v>
       </c>
       <c r="G48" t="n">
-        <v>26.91000000000001</v>
+        <v>-491369.7784672801</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2119,7 +2281,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2142,10 +2308,10 @@
         <v>26.8</v>
       </c>
       <c r="F49" t="n">
-        <v>9184.6849</v>
+        <v>4947.5671</v>
       </c>
       <c r="G49" t="n">
-        <v>26.91500000000001</v>
+        <v>-491369.7784672801</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2155,7 +2321,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2336,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="C50" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="E50" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="F50" t="n">
-        <v>54.6788</v>
+        <v>42.3944</v>
       </c>
       <c r="G50" t="n">
-        <v>26.91000000000001</v>
+        <v>-491327.3840672801</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2191,7 +2361,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2376,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C51" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="E51" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F51" t="n">
-        <v>193489.334</v>
+        <v>16436.8518</v>
       </c>
       <c r="G51" t="n">
-        <v>26.93500000000001</v>
+        <v>-491327.3840672801</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2227,7 +2401,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2416,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E52" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="F52" t="n">
-        <v>113000</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>27.02000000000001</v>
+        <v>-491327.3840672801</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2263,7 +2441,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2456,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.3</v>
+        <v>27</v>
       </c>
       <c r="C53" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E53" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F53" t="n">
-        <v>71909.87880000001</v>
+        <v>1376.4574</v>
       </c>
       <c r="G53" t="n">
-        <v>27.14000000000001</v>
+        <v>-491327.3840672801</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2496,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C54" t="n">
-        <v>30.9</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
-        <v>30.9</v>
+        <v>27</v>
       </c>
       <c r="E54" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F54" t="n">
-        <v>65.5421</v>
+        <v>754.5555000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>27.24000000000001</v>
+        <v>-491327.3840672801</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>27</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2538,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>30.7</v>
+        <v>26.8</v>
       </c>
       <c r="C55" t="n">
-        <v>30.7</v>
+        <v>26.6</v>
       </c>
       <c r="D55" t="n">
-        <v>30.9</v>
+        <v>26.8</v>
       </c>
       <c r="E55" t="n">
-        <v>29.6</v>
+        <v>26.6</v>
       </c>
       <c r="F55" t="n">
-        <v>96838.25124368</v>
+        <v>78545.16250000001</v>
       </c>
       <c r="G55" t="n">
-        <v>27.42000000000001</v>
+        <v>-569872.5465672801</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>27</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2580,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.6</v>
+        <v>26.7</v>
       </c>
       <c r="C56" t="n">
-        <v>29.5</v>
+        <v>26.7</v>
       </c>
       <c r="D56" t="n">
-        <v>30.6</v>
+        <v>26.7</v>
       </c>
       <c r="E56" t="n">
-        <v>29.5</v>
+        <v>26.7</v>
       </c>
       <c r="F56" t="n">
-        <v>87764.87179999999</v>
+        <v>25</v>
       </c>
       <c r="G56" t="n">
-        <v>27.54500000000001</v>
+        <v>-569847.5465672801</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>26.6</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2622,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.5</v>
+        <v>27</v>
       </c>
       <c r="C57" t="n">
-        <v>29.7</v>
+        <v>27</v>
       </c>
       <c r="D57" t="n">
-        <v>30.7</v>
+        <v>27</v>
       </c>
       <c r="E57" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F57" t="n">
-        <v>24936.3428</v>
+        <v>12.3333</v>
       </c>
       <c r="G57" t="n">
-        <v>27.67000000000001</v>
+        <v>-569835.21326728</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2664,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.2</v>
+        <v>26.7</v>
       </c>
       <c r="C58" t="n">
-        <v>29.6</v>
+        <v>26.6</v>
       </c>
       <c r="D58" t="n">
-        <v>29.6</v>
+        <v>26.7</v>
       </c>
       <c r="E58" t="n">
-        <v>29</v>
+        <v>26.6</v>
       </c>
       <c r="F58" t="n">
-        <v>144819.8094</v>
+        <v>24025.6327</v>
       </c>
       <c r="G58" t="n">
-        <v>27.79500000000001</v>
+        <v>-593860.84596728</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2479,7 +2689,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2704,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>28.2</v>
+        <v>26.9</v>
       </c>
       <c r="C59" t="n">
-        <v>29.5</v>
+        <v>26.9</v>
       </c>
       <c r="D59" t="n">
-        <v>29.6</v>
+        <v>26.9</v>
       </c>
       <c r="E59" t="n">
-        <v>27.9</v>
+        <v>26.9</v>
       </c>
       <c r="F59" t="n">
-        <v>131537.9721</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>27.87000000000001</v>
+        <v>-592860.84596728</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2515,7 +2729,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2744,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28.2</v>
+        <v>26.6</v>
       </c>
       <c r="C60" t="n">
-        <v>29.5</v>
+        <v>26.6</v>
       </c>
       <c r="D60" t="n">
-        <v>29.5</v>
+        <v>26.6</v>
       </c>
       <c r="E60" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="F60" t="n">
-        <v>95061.9424</v>
+        <v>3113.5065</v>
       </c>
       <c r="G60" t="n">
-        <v>27.94500000000001</v>
+        <v>-595974.35246728</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2551,7 +2769,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2784,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>28.9</v>
+        <v>26.9</v>
       </c>
       <c r="C61" t="n">
-        <v>28.9</v>
+        <v>26.9</v>
       </c>
       <c r="D61" t="n">
-        <v>28.9</v>
+        <v>26.9</v>
       </c>
       <c r="E61" t="n">
-        <v>28.9</v>
+        <v>26.9</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>12.3791</v>
       </c>
       <c r="G61" t="n">
-        <v>28.04000000000001</v>
+        <v>-595961.97336728</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2809,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2824,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.1</v>
+        <v>26.9</v>
       </c>
       <c r="C62" t="n">
-        <v>28.8</v>
+        <v>26.9</v>
       </c>
       <c r="D62" t="n">
-        <v>29.1</v>
+        <v>26.9</v>
       </c>
       <c r="E62" t="n">
-        <v>28.8</v>
+        <v>26.9</v>
       </c>
       <c r="F62" t="n">
-        <v>22.25</v>
+        <v>3177.0262</v>
       </c>
       <c r="G62" t="n">
-        <v>28.14000000000001</v>
+        <v>-595961.97336728</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2623,7 +2849,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2864,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="C63" t="n">
         <v>27.1</v>
       </c>
       <c r="D63" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="E63" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F63" t="n">
-        <v>212127.4133</v>
+        <v>33336.3696</v>
       </c>
       <c r="G63" t="n">
-        <v>28.18000000000001</v>
+        <v>-562625.60376728</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2889,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2673,19 +2907,19 @@
         <v>27.1</v>
       </c>
       <c r="C64" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D64" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E64" t="n">
         <v>27.1</v>
       </c>
       <c r="F64" t="n">
-        <v>91936.3606</v>
+        <v>43409.6646</v>
       </c>
       <c r="G64" t="n">
-        <v>28.18000000000001</v>
+        <v>-519215.93916728</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2929,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2944,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C65" t="n">
         <v>27.1</v>
       </c>
       <c r="D65" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E65" t="n">
         <v>27.1</v>
       </c>
       <c r="F65" t="n">
-        <v>58449.2512</v>
+        <v>1406.8044</v>
       </c>
       <c r="G65" t="n">
-        <v>28.195</v>
+        <v>-520622.74356728</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +2969,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2984,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="C66" t="n">
-        <v>27.7</v>
+        <v>26.8</v>
       </c>
       <c r="D66" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="E66" t="n">
-        <v>27.7</v>
+        <v>26.8</v>
       </c>
       <c r="F66" t="n">
-        <v>11</v>
+        <v>3473.8094</v>
       </c>
       <c r="G66" t="n">
-        <v>28.23000000000001</v>
+        <v>-524096.55296728</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +3009,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,32 +3024,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D67" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E67" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F67" t="n">
-        <v>57186.0218</v>
+        <v>400</v>
       </c>
       <c r="G67" t="n">
-        <v>28.24000000000001</v>
+        <v>-524496.55296728</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>26.8</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,32 +3066,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="C68" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="D68" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="E68" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="F68" t="n">
-        <v>27538.6264</v>
+        <v>9580.7613</v>
       </c>
       <c r="G68" t="n">
-        <v>28.25500000000001</v>
+        <v>-524496.55296728</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,32 +3108,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="C69" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="D69" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="E69" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="F69" t="n">
-        <v>40328.3794</v>
+        <v>9191.7376</v>
       </c>
       <c r="G69" t="n">
-        <v>28.29000000000001</v>
+        <v>-533688.29056728</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,32 +3150,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D70" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E70" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="F70" t="n">
-        <v>54080.2362</v>
+        <v>4908.0093</v>
       </c>
       <c r="G70" t="n">
-        <v>28.31000000000002</v>
+        <v>-528780.28126728</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>26.6</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,32 +3192,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D71" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E71" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F71" t="n">
-        <v>15882.95</v>
+        <v>10400</v>
       </c>
       <c r="G71" t="n">
-        <v>28.30500000000002</v>
+        <v>-528780.28126728</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,32 +3234,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="C72" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="D72" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="E72" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="F72" t="n">
-        <v>1161.3085</v>
+        <v>23174.8134</v>
       </c>
       <c r="G72" t="n">
-        <v>28.21500000000001</v>
+        <v>-528780.28126728</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,32 +3276,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="C73" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="D73" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="E73" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="F73" t="n">
-        <v>672.422</v>
+        <v>16425.1866</v>
       </c>
       <c r="G73" t="n">
-        <v>28.09000000000001</v>
+        <v>-528780.28126728</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,32 +3318,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="C74" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D74" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E74" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>872.2239</v>
       </c>
       <c r="G74" t="n">
-        <v>28.01000000000001</v>
+        <v>-527908.05736728</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,36 +3360,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="C75" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D75" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="E75" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>21862.2295</v>
       </c>
       <c r="G75" t="n">
-        <v>27.81500000000001</v>
+        <v>-549770.28686728</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3109,35 +3403,31 @@
         <v>26.8</v>
       </c>
       <c r="C76" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="D76" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="E76" t="n">
         <v>26.8</v>
       </c>
       <c r="F76" t="n">
-        <v>2126.9704</v>
+        <v>6844.1405</v>
       </c>
       <c r="G76" t="n">
-        <v>27.675</v>
+        <v>-556614.42736728</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3150,35 +3440,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="C77" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="D77" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="E77" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="F77" t="n">
-        <v>3106.9704</v>
+        <v>9328.358200000001</v>
       </c>
       <c r="G77" t="n">
-        <v>27.55500000000001</v>
+        <v>-556614.42736728</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K77" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3197,30 +3483,30 @@
         <v>26.8</v>
       </c>
       <c r="C78" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="D78" t="n">
         <v>26.8</v>
       </c>
       <c r="E78" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F78" t="n">
-        <v>98683.4145</v>
+        <v>9184.6849</v>
       </c>
       <c r="G78" t="n">
-        <v>27.435</v>
+        <v>-556614.42736728</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J78" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3236,33 +3522,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C79" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="D79" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E79" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="F79" t="n">
-        <v>716.6068</v>
+        <v>54.6788</v>
       </c>
       <c r="G79" t="n">
-        <v>27.36</v>
+        <v>-556614.42736728</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J79" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,33 +3564,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="C80" t="n">
-        <v>26.7</v>
+        <v>28.6</v>
       </c>
       <c r="D80" t="n">
-        <v>26.8</v>
+        <v>28.6</v>
       </c>
       <c r="E80" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="F80" t="n">
-        <v>40205.6134</v>
+        <v>193489.334</v>
       </c>
       <c r="G80" t="n">
-        <v>27.29</v>
+        <v>-363125.09336728</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J80" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3320,22 +3606,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.1</v>
+        <v>28.6</v>
       </c>
       <c r="C81" t="n">
-        <v>27.1</v>
+        <v>31</v>
       </c>
       <c r="D81" t="n">
-        <v>27.1</v>
+        <v>31</v>
       </c>
       <c r="E81" t="n">
-        <v>27.1</v>
+        <v>28.6</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>113000</v>
       </c>
       <c r="G81" t="n">
-        <v>27.2</v>
+        <v>-250125.09336728</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3344,9 +3630,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3362,22 +3646,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>26.9</v>
+        <v>29.3</v>
       </c>
       <c r="C82" t="n">
-        <v>26.9</v>
+        <v>31</v>
       </c>
       <c r="D82" t="n">
-        <v>26.9</v>
+        <v>31</v>
       </c>
       <c r="E82" t="n">
-        <v>26.9</v>
+        <v>29</v>
       </c>
       <c r="F82" t="n">
-        <v>528</v>
+        <v>71909.87880000001</v>
       </c>
       <c r="G82" t="n">
-        <v>27.09</v>
+        <v>-250125.09336728</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3386,9 +3670,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3404,41 +3686,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.7</v>
+        <v>29</v>
       </c>
       <c r="C83" t="n">
-        <v>26.6</v>
+        <v>30.9</v>
       </c>
       <c r="D83" t="n">
-        <v>26.7</v>
+        <v>30.9</v>
       </c>
       <c r="E83" t="n">
-        <v>26.6</v>
+        <v>29</v>
       </c>
       <c r="F83" t="n">
-        <v>61438.8253</v>
+        <v>65.5421</v>
       </c>
       <c r="G83" t="n">
-        <v>27.03</v>
+        <v>-250190.63546728</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3446,22 +3724,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.1</v>
+        <v>30.7</v>
       </c>
       <c r="C84" t="n">
-        <v>27.1</v>
+        <v>30.7</v>
       </c>
       <c r="D84" t="n">
-        <v>27.1</v>
+        <v>30.9</v>
       </c>
       <c r="E84" t="n">
-        <v>27.1</v>
+        <v>29.6</v>
       </c>
       <c r="F84" t="n">
-        <v>519.4372</v>
+        <v>96838.25124368</v>
       </c>
       <c r="G84" t="n">
-        <v>27.03</v>
+        <v>-347028.88671096</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3470,14 +3748,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3488,38 +3760,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.1</v>
+        <v>29.6</v>
       </c>
       <c r="C85" t="n">
-        <v>27.2</v>
+        <v>29.5</v>
       </c>
       <c r="D85" t="n">
-        <v>27.2</v>
+        <v>30.6</v>
       </c>
       <c r="E85" t="n">
-        <v>27.1</v>
+        <v>29.5</v>
       </c>
       <c r="F85" t="n">
-        <v>3150.238</v>
+        <v>87764.87179999999</v>
       </c>
       <c r="G85" t="n">
-        <v>27.02</v>
+        <v>-434793.7585109599</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3530,22 +3796,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.1</v>
+        <v>29.5</v>
       </c>
       <c r="C86" t="n">
-        <v>27.1</v>
+        <v>29.7</v>
       </c>
       <c r="D86" t="n">
-        <v>27.1</v>
+        <v>30.7</v>
       </c>
       <c r="E86" t="n">
-        <v>27.1</v>
+        <v>29</v>
       </c>
       <c r="F86" t="n">
-        <v>2030.2551</v>
+        <v>24936.3428</v>
       </c>
       <c r="G86" t="n">
-        <v>26.99</v>
+        <v>-409857.4157109599</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3554,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3572,38 +3832,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.2</v>
+        <v>29.2</v>
       </c>
       <c r="C87" t="n">
-        <v>27.2</v>
+        <v>29.6</v>
       </c>
       <c r="D87" t="n">
-        <v>27.2</v>
+        <v>29.6</v>
       </c>
       <c r="E87" t="n">
-        <v>27.2</v>
+        <v>29</v>
       </c>
       <c r="F87" t="n">
-        <v>23351.0306</v>
+        <v>144819.8094</v>
       </c>
       <c r="G87" t="n">
-        <v>27.00000000000001</v>
+        <v>-554677.22511096</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3614,22 +3868,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.8</v>
+        <v>28.2</v>
       </c>
       <c r="C88" t="n">
-        <v>26.8</v>
+        <v>29.5</v>
       </c>
       <c r="D88" t="n">
-        <v>26.8</v>
+        <v>29.6</v>
       </c>
       <c r="E88" t="n">
-        <v>26.8</v>
+        <v>27.9</v>
       </c>
       <c r="F88" t="n">
-        <v>3076.7153</v>
+        <v>131537.9721</v>
       </c>
       <c r="G88" t="n">
-        <v>26.985</v>
+        <v>-686215.19721096</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3638,14 +3892,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3656,38 +3904,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.3</v>
+        <v>28.2</v>
       </c>
       <c r="C89" t="n">
-        <v>28.4</v>
+        <v>29.5</v>
       </c>
       <c r="D89" t="n">
-        <v>28.4</v>
+        <v>29.5</v>
       </c>
       <c r="E89" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="F89" t="n">
-        <v>5322</v>
+        <v>95061.9424</v>
       </c>
       <c r="G89" t="n">
-        <v>26.975</v>
+        <v>-686215.19721096</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3698,22 +3940,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="C90" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="D90" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="E90" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="F90" t="n">
-        <v>123.5241</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>27.04</v>
+        <v>-686225.19721096</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3722,14 +3964,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3740,38 +3976,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.3</v>
+        <v>29.1</v>
       </c>
       <c r="C91" t="n">
-        <v>27.2</v>
+        <v>28.8</v>
       </c>
       <c r="D91" t="n">
-        <v>27.3</v>
+        <v>29.1</v>
       </c>
       <c r="E91" t="n">
-        <v>27.2</v>
+        <v>28.8</v>
       </c>
       <c r="F91" t="n">
-        <v>7948.1456</v>
+        <v>22.25</v>
       </c>
       <c r="G91" t="n">
-        <v>27.055</v>
+        <v>-686247.44721096</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3782,22 +4012,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="C92" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="D92" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="E92" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="F92" t="n">
-        <v>2772.7272</v>
+        <v>212127.4133</v>
       </c>
       <c r="G92" t="n">
-        <v>27.09</v>
+        <v>-898374.86051096</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3806,14 +4036,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3824,10 +4048,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C93" t="n">
         <v>27.7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>27.1</v>
       </c>
       <c r="D93" t="n">
         <v>27.7</v>
@@ -3836,26 +4060,20 @@
         <v>27.1</v>
       </c>
       <c r="F93" t="n">
-        <v>18533.6039</v>
+        <v>91936.3606</v>
       </c>
       <c r="G93" t="n">
-        <v>27.135</v>
+        <v>-806438.49991096</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3866,22 +4084,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C94" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D94" t="n">
         <v>27.3</v>
       </c>
       <c r="E94" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F94" t="n">
-        <v>28599.7452</v>
+        <v>58449.2512</v>
       </c>
       <c r="G94" t="n">
-        <v>27.12500000000001</v>
+        <v>-864887.75111096</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3890,14 +4108,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3908,22 +4120,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C95" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D95" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E95" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="F95" t="n">
-        <v>7493.9607</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>27.15000000000001</v>
+        <v>-864876.75111096</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3932,14 +4144,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3950,22 +4156,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E96" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="F96" t="n">
-        <v>567.6599</v>
+        <v>57186.0218</v>
       </c>
       <c r="G96" t="n">
-        <v>27.16500000000001</v>
+        <v>-922062.77291096</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3974,14 +4180,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3995,19 +4195,19 @@
         <v>27.1</v>
       </c>
       <c r="C97" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D97" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E97" t="n">
         <v>27.1</v>
       </c>
       <c r="F97" t="n">
-        <v>87811.5907</v>
+        <v>27538.6264</v>
       </c>
       <c r="G97" t="n">
-        <v>27.16500000000001</v>
+        <v>-894524.1465109601</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4016,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4037,19 +4231,19 @@
         <v>27.5</v>
       </c>
       <c r="C98" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D98" t="n">
         <v>27.5</v>
       </c>
       <c r="E98" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F98" t="n">
-        <v>37516.0331</v>
+        <v>40328.3794</v>
       </c>
       <c r="G98" t="n">
-        <v>27.20000000000001</v>
+        <v>-894524.1465109601</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4058,14 +4252,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4076,22 +4264,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C99" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D99" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E99" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="F99" t="n">
-        <v>16062</v>
+        <v>54080.2362</v>
       </c>
       <c r="G99" t="n">
-        <v>27.24500000000001</v>
+        <v>-948604.3827109601</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4100,14 +4288,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4118,22 +4300,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="C100" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D100" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E100" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="F100" t="n">
-        <v>16062</v>
+        <v>15882.95</v>
       </c>
       <c r="G100" t="n">
-        <v>27.28000000000001</v>
+        <v>-948604.3827109601</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4142,14 +4324,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4160,22 +4336,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="C101" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="D101" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="E101" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="F101" t="n">
-        <v>38672.1014</v>
+        <v>1161.3085</v>
       </c>
       <c r="G101" t="n">
-        <v>27.30500000000001</v>
+        <v>-949765.6912109602</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4184,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4202,22 +4372,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="C102" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="D102" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="E102" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="F102" t="n">
-        <v>20.8791</v>
+        <v>672.422</v>
       </c>
       <c r="G102" t="n">
-        <v>27.32500000000001</v>
+        <v>-949765.6912109602</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4226,14 +4396,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4244,22 +4408,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C103" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D103" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E103" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F103" t="n">
-        <v>13338.5395</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>27.35500000000001</v>
+        <v>-949755.6912109602</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4268,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4286,22 +4444,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="C104" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="D104" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="E104" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="F104" t="n">
-        <v>5942.8685</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>27.365</v>
+        <v>-950755.6912109602</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4310,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4328,22 +4480,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="C105" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="D105" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="E105" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="F105" t="n">
-        <v>90149.6972</v>
+        <v>2126.9704</v>
       </c>
       <c r="G105" t="n">
-        <v>27.355</v>
+        <v>-948628.7208109602</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4352,14 +4504,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4370,22 +4516,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C106" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D106" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E106" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>3106.9704</v>
       </c>
       <c r="G106" t="n">
-        <v>27.37</v>
+        <v>-951735.6912109602</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4394,14 +4540,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +4552,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C107" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D107" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E107" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F107" t="n">
-        <v>1000</v>
+        <v>98683.4145</v>
       </c>
       <c r="G107" t="n">
-        <v>27.345</v>
+        <v>-1050419.10571096</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4436,14 +4576,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4454,38 +4588,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C108" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="D108" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E108" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>716.6068</v>
       </c>
       <c r="G108" t="n">
-        <v>27.35</v>
+        <v>-1049702.49891096</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>26.6</v>
+      </c>
       <c r="K108" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.6</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4499,33 +4631,35 @@
         <v>26.8</v>
       </c>
       <c r="C109" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D109" t="n">
         <v>26.8</v>
       </c>
       <c r="E109" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F109" t="n">
-        <v>13947.7345</v>
+        <v>40205.6134</v>
       </c>
       <c r="G109" t="n">
-        <v>27.325</v>
+        <v>-1049702.49891096</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K109" t="n">
-        <v>27.4</v>
+        <v>26.6</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M109" t="n">
@@ -4538,36 +4672,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C110" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="D110" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E110" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="F110" t="n">
-        <v>5400.0966</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>27.245</v>
+        <v>-1049692.49891096</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K110" t="n">
-        <v>27.4</v>
+        <v>26.6</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -4583,35 +4719,33 @@
         <v>26.9</v>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D111" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E111" t="n">
         <v>26.9</v>
       </c>
       <c r="F111" t="n">
-        <v>25398.6295</v>
+        <v>528</v>
       </c>
       <c r="G111" t="n">
-        <v>27.225</v>
+        <v>-1050220.49891096</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K111" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>27.1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4622,42 +4756,1280 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="C112" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="D112" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E112" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="F112" t="n">
+        <v>61438.8253</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1111659.32421096</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K112" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>519.4372</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1111139.88701096</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3150.238</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1107989.64901096</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2030.2551</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1110019.90411096</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>23351.0306</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1086668.87351096</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3076.7153</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1089745.58881096</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K117" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5322</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1084423.58881096</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K118" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>123.5241</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1084300.06471096</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7948.1456</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1092248.21031096</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2772.7272</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1089475.48311096</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K121" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18533.6039</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1108009.08701096</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>28599.7452</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1079409.34181096</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7493.9607</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1086903.30251096</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>567.6599</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1087470.96241096</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>87811.5907</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-999659.3717109601</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>37516.0331</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1037175.40481096</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16062</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1021113.40481096</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16062</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1037175.40481096</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>38672.1014</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-998503.30341096</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>20.8791</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-998524.18251096</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>13338.5395</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-985185.6430109601</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5942.8685</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-991128.5115109601</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>90149.6972</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1081278.20871096</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1081268.20871096</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1082268.20871096</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1082258.20871096</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>13947.7345</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1096205.94321096</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5400.0966</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1090805.84661096</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27</v>
+      </c>
+      <c r="E140" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>25398.6295</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1065407.21711096</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27</v>
+      </c>
+      <c r="C141" t="n">
+        <v>27</v>
+      </c>
+      <c r="D141" t="n">
+        <v>27</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27</v>
+      </c>
+      <c r="F141" t="n">
         <v>2555.3765</v>
       </c>
-      <c r="G112" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>-1065407.21711096</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest CHR.xlsx
+++ b/BackTest/2019-10-29 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,19 @@
         <v>-337087.7322672801</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.9</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,24 +719,23 @@
         <v>-337061.91476728</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="J10" t="n">
         <v>26.9</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -786,22 +760,23 @@
         <v>-337061.91476728</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>27.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,20 +803,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -868,20 +842,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,20 +881,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -948,20 +920,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,20 +959,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1028,20 +998,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,20 +1037,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1108,20 +1076,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1148,20 +1115,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1188,20 +1154,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1228,20 +1193,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1268,20 +1232,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1306,22 +1269,23 @@
         <v>-389700.3821672801</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1346,22 +1310,23 @@
         <v>-425122.8822672801</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1386,24 +1351,23 @@
         <v>-425122.8822672801</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J26" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1428,22 +1392,23 @@
         <v>-424243.2526672801</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1468,22 +1433,23 @@
         <v>-424243.2526672801</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1508,22 +1474,23 @@
         <v>-469330.7531672801</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1548,22 +1515,23 @@
         <v>-468002.2606672801</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1588,22 +1556,23 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1628,22 +1597,23 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1670,20 +1640,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1710,20 +1679,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1750,20 +1718,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1788,24 +1755,23 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J36" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1830,24 +1796,23 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J37" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1872,24 +1837,23 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J38" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1914,22 +1878,23 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1954,22 +1919,23 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1994,22 +1960,23 @@
         <v>-470211.6305672801</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2034,22 +2001,23 @@
         <v>-470143.7824672801</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2074,22 +2042,23 @@
         <v>-474334.1623672801</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2114,22 +2083,23 @@
         <v>-474334.1623672801</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2154,22 +2124,23 @@
         <v>-472723.1164672801</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2194,22 +2165,23 @@
         <v>-472723.1164672801</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2234,22 +2206,23 @@
         <v>-472723.1164672801</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2274,22 +2247,23 @@
         <v>-491369.7784672801</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2316,20 +2290,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2354,22 +2327,23 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2394,22 +2368,23 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J51" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2434,22 +2409,23 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J52" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2474,22 +2450,23 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J53" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2514,24 +2491,23 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J54" t="n">
-        <v>27</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2556,24 +2532,23 @@
         <v>-569872.5465672801</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J55" t="n">
-        <v>27</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2598,24 +2573,23 @@
         <v>-569847.5465672801</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="J56" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2640,24 +2614,23 @@
         <v>-569835.21326728</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J57" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2682,22 +2655,23 @@
         <v>-593860.84596728</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J58" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2724,20 +2698,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2762,22 +2735,23 @@
         <v>-595974.35246728</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2802,22 +2776,23 @@
         <v>-595961.97336728</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>26.6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2844,20 +2819,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2884,20 +2858,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2922,22 +2895,23 @@
         <v>-519215.93916728</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2964,20 +2938,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3004,20 +2977,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3042,24 +3014,21 @@
         <v>-524496.55296728</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3084,24 +3053,23 @@
         <v>-524496.55296728</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J68" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3126,24 +3094,23 @@
         <v>-533688.29056728</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J69" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3168,24 +3135,23 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="J70" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3210,24 +3176,23 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="J71" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3252,24 +3217,23 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="J72" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3294,24 +3258,23 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="J73" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3336,24 +3299,23 @@
         <v>-527908.05736728</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="J74" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3378,22 +3340,23 @@
         <v>-549770.28686728</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3420,20 +3383,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3458,22 +3420,23 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="J77" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3498,24 +3461,23 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="J78" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3540,24 +3502,23 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="J79" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3582,24 +3543,23 @@
         <v>-363125.09336728</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="J80" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3626,20 +3586,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3666,20 +3625,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3704,20 +3662,21 @@
         <v>-250190.63546728</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3742,18 +3701,23 @@
         <v>-347028.88671096</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.136263940520446</v>
+      </c>
       <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>1.014925373134328</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3778,18 +3742,15 @@
         <v>-434793.7585109599</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3814,18 +3775,15 @@
         <v>-409857.4157109599</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3850,18 +3808,15 @@
         <v>-554677.22511096</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3886,18 +3841,15 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3922,18 +3874,15 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3958,18 +3907,15 @@
         <v>-686225.19721096</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3994,18 +3940,15 @@
         <v>-686247.44721096</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4030,18 +3973,15 @@
         <v>-898374.86051096</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4068,16 +4008,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4102,18 +4039,15 @@
         <v>-864887.75111096</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4140,16 +4074,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4174,18 +4105,15 @@
         <v>-922062.77291096</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4210,18 +4138,15 @@
         <v>-894524.1465109601</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4246,18 +4171,15 @@
         <v>-894524.1465109601</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4282,18 +4204,15 @@
         <v>-948604.3827109601</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4318,18 +4237,15 @@
         <v>-948604.3827109601</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4354,18 +4270,15 @@
         <v>-949765.6912109602</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4392,16 +4305,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4428,16 +4338,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4464,16 +4371,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4500,16 +4404,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4536,16 +4437,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4572,16 +4470,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4606,22 +4501,15 @@
         <v>-1049702.49891096</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K108" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4646,26 +4534,15 @@
         <v>-1049702.49891096</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K109" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4690,26 +4567,15 @@
         <v>-1049692.49891096</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K110" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4734,22 +4600,15 @@
         <v>-1050220.49891096</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K111" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4774,26 +4633,15 @@
         <v>-1111659.32421096</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K112" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4818,26 +4666,15 @@
         <v>-1111139.88701096</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K113" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4862,26 +4699,15 @@
         <v>-1107989.64901096</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K114" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4908,22 +4734,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4948,26 +4765,15 @@
         <v>-1086668.87351096</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K116" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4992,26 +4798,15 @@
         <v>-1089745.58881096</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K117" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5036,26 +4831,15 @@
         <v>-1084423.58881096</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K118" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5080,26 +4864,15 @@
         <v>-1084300.06471096</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K119" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5126,22 +4899,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5166,26 +4930,15 @@
         <v>-1089475.48311096</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K121" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5212,22 +4965,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5254,22 +4998,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5296,22 +5031,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5336,26 +5062,15 @@
         <v>-1087470.96241096</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K125" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5380,26 +5095,15 @@
         <v>-999659.3717109601</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K126" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5426,22 +5130,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5468,22 +5163,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5510,22 +5196,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5552,22 +5229,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5594,22 +5262,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5636,22 +5295,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5678,22 +5328,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5720,22 +5361,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5762,22 +5394,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5804,22 +5427,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5846,22 +5460,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5888,22 +5493,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5930,22 +5526,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5972,22 +5559,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6014,24 +5592,15 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest CHR.xlsx
+++ b/BackTest/2019-10-29 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,14 +682,10 @@
         <v>-337087.7322672801</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -719,19 +715,11 @@
         <v>-337061.91476728</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -760,19 +748,11 @@
         <v>-337061.91476728</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -804,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -843,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -882,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -921,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -960,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -999,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1038,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1077,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1116,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1155,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1194,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1233,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1269,19 +1177,11 @@
         <v>-389700.3821672801</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1310,19 +1210,11 @@
         <v>-425122.8822672801</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1351,19 +1243,11 @@
         <v>-425122.8822672801</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1392,19 +1276,11 @@
         <v>-424243.2526672801</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1433,19 +1309,11 @@
         <v>-424243.2526672801</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>27</v>
-      </c>
-      <c r="J28" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1474,19 +1342,11 @@
         <v>-469330.7531672801</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>27</v>
-      </c>
-      <c r="J29" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1515,19 +1375,11 @@
         <v>-468002.2606672801</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1556,19 +1408,11 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1597,19 +1441,11 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1641,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1680,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1719,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1755,19 +1573,11 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1796,19 +1606,15 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>26.7</v>
       </c>
       <c r="J37" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.7</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1837,17 +1643,17 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>26.7</v>
       </c>
       <c r="J38" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1878,17 +1684,15 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1919,13 +1723,13 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>26.9</v>
       </c>
       <c r="J40" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1960,13 +1764,11 @@
         <v>-470211.6305672801</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2001,13 +1803,13 @@
         <v>-470143.7824672801</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>26.7</v>
       </c>
       <c r="J42" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2042,13 +1844,13 @@
         <v>-474334.1623672801</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>27</v>
       </c>
       <c r="J43" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2083,13 +1885,13 @@
         <v>-474334.1623672801</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>26.7</v>
       </c>
       <c r="J44" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2124,13 +1926,13 @@
         <v>-472723.1164672801</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>26.7</v>
       </c>
       <c r="J45" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2165,13 +1967,13 @@
         <v>-472723.1164672801</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>26.9</v>
       </c>
       <c r="J46" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2206,13 +2008,11 @@
         <v>-472723.1164672801</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2247,13 +2047,13 @@
         <v>-491369.7784672801</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>26.9</v>
       </c>
       <c r="J48" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2288,11 +2088,13 @@
         <v>-491369.7784672801</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J49" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2327,13 +2129,13 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>26.8</v>
       </c>
       <c r="J50" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2368,13 +2170,13 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>27</v>
       </c>
       <c r="J51" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2409,13 +2211,13 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>27</v>
       </c>
       <c r="J52" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2450,13 +2252,13 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>27</v>
       </c>
       <c r="J53" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2491,13 +2293,13 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>27</v>
       </c>
       <c r="J54" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2532,13 +2334,13 @@
         <v>-569872.5465672801</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>27</v>
       </c>
       <c r="J55" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2573,13 +2375,13 @@
         <v>-569847.5465672801</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>26.6</v>
       </c>
       <c r="J56" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2614,13 +2416,13 @@
         <v>-569835.21326728</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>26.7</v>
       </c>
       <c r="J57" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2655,13 +2457,13 @@
         <v>-593860.84596728</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>27</v>
       </c>
       <c r="J58" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2696,11 +2498,13 @@
         <v>-592860.84596728</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26.6</v>
+      </c>
       <c r="J59" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2735,13 +2539,13 @@
         <v>-595974.35246728</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>26.9</v>
       </c>
       <c r="J60" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2776,13 +2580,13 @@
         <v>-595961.97336728</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>26.6</v>
       </c>
       <c r="J61" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2817,11 +2621,13 @@
         <v>-595961.97336728</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J62" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2856,11 +2662,13 @@
         <v>-562625.60376728</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J63" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2895,13 +2703,13 @@
         <v>-519215.93916728</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>27.1</v>
       </c>
       <c r="J64" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2936,11 +2744,13 @@
         <v>-520622.74356728</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J65" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2975,11 +2785,13 @@
         <v>-524096.55296728</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J66" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3014,11 +2826,13 @@
         <v>-524496.55296728</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J67" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3053,13 +2867,13 @@
         <v>-524496.55296728</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>26.7</v>
       </c>
       <c r="J68" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3094,13 +2908,13 @@
         <v>-533688.29056728</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>26.7</v>
       </c>
       <c r="J69" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3135,13 +2949,13 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>26.6</v>
       </c>
       <c r="J70" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3176,13 +2990,13 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>27.1</v>
       </c>
       <c r="J71" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3217,13 +3031,13 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>27.1</v>
       </c>
       <c r="J72" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3258,13 +3072,13 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>27.1</v>
       </c>
       <c r="J73" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3299,13 +3113,13 @@
         <v>-527908.05736728</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>27.1</v>
       </c>
       <c r="J74" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3340,13 +3154,13 @@
         <v>-549770.28686728</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>27.2</v>
       </c>
       <c r="J75" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3381,11 +3195,13 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J76" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3420,13 +3236,13 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>26.8</v>
       </c>
       <c r="J77" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3461,13 +3277,13 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>26.8</v>
       </c>
       <c r="J78" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3502,13 +3318,13 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>26.8</v>
       </c>
       <c r="J79" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3543,13 +3359,13 @@
         <v>-363125.09336728</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>26.8</v>
       </c>
       <c r="J80" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3588,7 +3404,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3627,7 +3443,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3662,11 +3478,11 @@
         <v>-250190.63546728</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3701,23 +3517,21 @@
         <v>-347028.88671096</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.136263940520446</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.014925373134328</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3742,15 +3556,23 @@
         <v>-434793.7585109599</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>1.099868913857678</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.02621722846442</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3775,7 +3597,7 @@
         <v>-409857.4157109599</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3808,7 +3630,7 @@
         <v>-554677.22511096</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3841,7 +3663,7 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3874,7 +3696,7 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3907,7 +3729,7 @@
         <v>-686225.19721096</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3940,7 +3762,7 @@
         <v>-686247.44721096</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3973,7 +3795,7 @@
         <v>-898374.86051096</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4006,7 +3828,7 @@
         <v>-806438.49991096</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4039,7 +3861,7 @@
         <v>-864887.75111096</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4105,7 +3927,7 @@
         <v>-922062.77291096</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4138,7 +3960,7 @@
         <v>-894524.1465109601</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4171,7 +3993,7 @@
         <v>-894524.1465109601</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4204,7 +4026,7 @@
         <v>-948604.3827109601</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4237,7 +4059,7 @@
         <v>-948604.3827109601</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4270,7 +4092,7 @@
         <v>-949765.6912109602</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4402,11 +4224,17 @@
         <v>-948628.7208109602</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>26.8</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4435,11 +4263,17 @@
         <v>-951735.6912109602</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4468,11 +4302,17 @@
         <v>-1050419.10571096</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4501,11 +4341,17 @@
         <v>-1049702.49891096</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>26.6</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4534,11 +4380,17 @@
         <v>-1049702.49891096</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4567,11 +4419,17 @@
         <v>-1049692.49891096</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4604,7 +4462,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4495,17 @@
         <v>-1111659.32421096</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4670,7 +4538,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4703,7 +4575,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4736,7 +4612,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4769,7 +4649,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4802,7 +4686,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4835,7 +4723,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +4760,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4901,7 +4797,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4934,7 +4834,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4967,7 +4871,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5000,7 +4908,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5033,7 +4945,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5066,7 +4982,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5099,7 +5019,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5132,7 +5056,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5165,7 +5093,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5198,7 +5130,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5231,7 +5167,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5264,7 +5204,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5297,7 +5241,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5330,7 +5278,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5363,7 +5315,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5396,7 +5352,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5429,7 +5389,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5462,7 +5426,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5495,7 +5463,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5528,7 +5500,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5561,7 +5537,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5594,13 +5574,17 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest CHR.xlsx
+++ b/BackTest/2019-10-29 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1606,14 +1606,10 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1643,710 +1639,598 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>14990.9688</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-470201.6305672801</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6664.2832</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-470201.6305672801</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-470211.6305672801</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>27</v>
+      </c>
+      <c r="C42" t="n">
+        <v>27</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>67.8481</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-470143.7824672801</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4190.3799</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-474334.1623672801</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>27484.1175</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-474334.1623672801</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1611.0459</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-472723.1164672801</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>129.1449</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-472723.1164672801</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>19229.2073</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-472723.1164672801</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>18646.662</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-491369.7784672801</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4947.5671</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-491369.7784672801</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>27</v>
+      </c>
+      <c r="C50" t="n">
+        <v>27</v>
+      </c>
+      <c r="D50" t="n">
+        <v>27</v>
+      </c>
+      <c r="E50" t="n">
+        <v>27</v>
+      </c>
+      <c r="F50" t="n">
+        <v>42.3944</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-491327.3840672801</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>27</v>
+      </c>
+      <c r="C51" t="n">
+        <v>27</v>
+      </c>
+      <c r="D51" t="n">
+        <v>27</v>
+      </c>
+      <c r="E51" t="n">
+        <v>27</v>
+      </c>
+      <c r="F51" t="n">
+        <v>16436.8518</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-491327.3840672801</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D39" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>27</v>
+      </c>
+      <c r="C52" t="n">
+        <v>27</v>
+      </c>
+      <c r="D52" t="n">
+        <v>27</v>
+      </c>
+      <c r="E52" t="n">
+        <v>27</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-491327.3840672801</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>27</v>
+      </c>
+      <c r="C53" t="n">
+        <v>27</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27</v>
+      </c>
+      <c r="E53" t="n">
+        <v>27</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1376.4574</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-491327.3840672801</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>27</v>
+      </c>
+      <c r="C54" t="n">
+        <v>27</v>
+      </c>
+      <c r="D54" t="n">
+        <v>27</v>
+      </c>
+      <c r="E54" t="n">
+        <v>27</v>
+      </c>
+      <c r="F54" t="n">
+        <v>754.5555000000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-491327.3840672801</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="n">
+        <v>27</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C55" t="n">
         <v>26.6</v>
       </c>
-      <c r="F39" t="n">
-        <v>14990.9688</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-470201.6305672801</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="D55" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>78545.16250000001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-569872.5465672801</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>27</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C40" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D40" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E40" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6664.2832</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-470201.6305672801</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C41" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E41" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>10</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-470211.6305672801</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>27</v>
-      </c>
-      <c r="C42" t="n">
-        <v>27</v>
-      </c>
-      <c r="D42" t="n">
-        <v>27</v>
-      </c>
-      <c r="E42" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>67.8481</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-470143.7824672801</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C43" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D43" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E43" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4190.3799</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-474334.1623672801</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>27</v>
-      </c>
-      <c r="J43" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D44" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>27484.1175</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-474334.1623672801</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C45" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D45" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E45" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1611.0459</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-472723.1164672801</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D46" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E46" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F46" t="n">
-        <v>129.1449</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-472723.1164672801</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J46" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C47" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D47" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E47" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>19229.2073</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-472723.1164672801</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D48" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F48" t="n">
-        <v>18646.662</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-491369.7784672801</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C49" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D49" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E49" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4947.5671</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-491369.7784672801</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>27</v>
-      </c>
-      <c r="C50" t="n">
-        <v>27</v>
-      </c>
-      <c r="D50" t="n">
-        <v>27</v>
-      </c>
-      <c r="E50" t="n">
-        <v>27</v>
-      </c>
-      <c r="F50" t="n">
-        <v>42.3944</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-491327.3840672801</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>27</v>
-      </c>
-      <c r="C51" t="n">
-        <v>27</v>
-      </c>
-      <c r="D51" t="n">
-        <v>27</v>
-      </c>
-      <c r="E51" t="n">
-        <v>27</v>
-      </c>
-      <c r="F51" t="n">
-        <v>16436.8518</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-491327.3840672801</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>27</v>
-      </c>
-      <c r="J51" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>27</v>
-      </c>
-      <c r="C52" t="n">
-        <v>27</v>
-      </c>
-      <c r="D52" t="n">
-        <v>27</v>
-      </c>
-      <c r="E52" t="n">
-        <v>27</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-491327.3840672801</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>27</v>
-      </c>
-      <c r="J52" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>27</v>
-      </c>
-      <c r="C53" t="n">
-        <v>27</v>
-      </c>
-      <c r="D53" t="n">
-        <v>27</v>
-      </c>
-      <c r="E53" t="n">
-        <v>27</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1376.4574</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-491327.3840672801</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>27</v>
-      </c>
-      <c r="J53" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>27</v>
-      </c>
-      <c r="C54" t="n">
-        <v>27</v>
-      </c>
-      <c r="D54" t="n">
-        <v>27</v>
-      </c>
-      <c r="E54" t="n">
-        <v>27</v>
-      </c>
-      <c r="F54" t="n">
-        <v>754.5555000000001</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-491327.3840672801</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>27</v>
-      </c>
-      <c r="J54" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C55" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D55" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E55" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F55" t="n">
-        <v>78545.16250000001</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-569872.5465672801</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2375,13 +2259,11 @@
         <v>-569847.5465672801</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2416,13 +2298,11 @@
         <v>-569835.21326728</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2463,7 +2343,7 @@
         <v>27</v>
       </c>
       <c r="J58" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2498,13 +2378,11 @@
         <v>-592860.84596728</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2545,7 +2423,7 @@
         <v>26.9</v>
       </c>
       <c r="J60" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2586,7 +2464,7 @@
         <v>26.6</v>
       </c>
       <c r="J61" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2627,7 +2505,7 @@
         <v>26.9</v>
       </c>
       <c r="J62" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2668,7 +2546,7 @@
         <v>26.9</v>
       </c>
       <c r="J63" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2703,13 +2581,11 @@
         <v>-519215.93916728</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2744,13 +2620,11 @@
         <v>-520622.74356728</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2785,13 +2659,11 @@
         <v>-524096.55296728</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2832,7 +2704,7 @@
         <v>26.8</v>
       </c>
       <c r="J67" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2873,7 +2745,7 @@
         <v>26.7</v>
       </c>
       <c r="J68" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2914,7 +2786,7 @@
         <v>26.7</v>
       </c>
       <c r="J69" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2955,7 +2827,7 @@
         <v>26.6</v>
       </c>
       <c r="J70" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2996,7 +2868,7 @@
         <v>27.1</v>
       </c>
       <c r="J71" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3037,7 +2909,7 @@
         <v>27.1</v>
       </c>
       <c r="J72" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3072,13 +2944,11 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3119,7 +2989,7 @@
         <v>27.1</v>
       </c>
       <c r="J74" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3160,7 +3030,7 @@
         <v>27.2</v>
       </c>
       <c r="J75" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3195,13 +3065,11 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3242,7 +3110,7 @@
         <v>26.8</v>
       </c>
       <c r="J77" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3283,7 +3151,7 @@
         <v>26.8</v>
       </c>
       <c r="J78" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3324,7 +3192,7 @@
         <v>26.8</v>
       </c>
       <c r="J79" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3365,7 +3233,7 @@
         <v>26.8</v>
       </c>
       <c r="J80" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3404,7 +3272,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3439,21 +3307,23 @@
         <v>-250125.09336728</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>1.143148148148148</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.030075187969925</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3478,17 +3348,11 @@
         <v>-250190.63546728</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3517,17 +3381,11 @@
         <v>-347028.88671096</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3556,23 +3414,15 @@
         <v>-434793.7585109599</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>1.099868913857678</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.02621722846442</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3597,7 +3447,7 @@
         <v>-409857.4157109599</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3630,7 +3480,7 @@
         <v>-554677.22511096</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3828,7 +3678,7 @@
         <v>-806438.49991096</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4224,1324 +4074,1194 @@
         <v>-948628.7208109602</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3106.9704</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-951735.6912109602</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C107" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E107" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>98683.4145</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1050419.10571096</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>716.6068</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1049702.49891096</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C109" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>40205.6134</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1049702.49891096</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1049692.49891096</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C111" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E111" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>528</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1050220.49891096</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>61438.8253</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1111659.32421096</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>519.4372</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1111139.88701096</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3150.238</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1107989.64901096</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2030.2551</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1110019.90411096</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>23351.0306</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1086668.87351096</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3076.7153</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1089745.58881096</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5322</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1084423.58881096</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>123.5241</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1084300.06471096</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7948.1456</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1092248.21031096</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2772.7272</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1089475.48311096</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18533.6039</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1108009.08701096</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>28599.7452</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1079409.34181096</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7493.9607</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1086903.30251096</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>567.6599</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1087470.96241096</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>87811.5907</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-999659.3717109601</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>37516.0331</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1037175.40481096</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16062</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1021113.40481096</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16062</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1037175.40481096</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>38672.1014</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-998503.30341096</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>20.8791</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-998524.18251096</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>13338.5395</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-985185.6430109601</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5942.8685</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-991128.5115109601</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>90149.6972</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1081278.20871096</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1081268.20871096</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1082268.20871096</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1082258.20871096</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J137" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>13947.7345</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1096205.94321096</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J138" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5400.0966</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1090805.84661096</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J139" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27</v>
+      </c>
+      <c r="E140" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>25398.6295</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1065407.21711096</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J140" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E106" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3106.9704</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-951735.6912109602</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C107" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D107" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E107" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F107" t="n">
-        <v>98683.4145</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-1050419.10571096</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C108" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D108" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E108" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F108" t="n">
-        <v>716.6068</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-1049702.49891096</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C109" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D109" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E109" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F109" t="n">
-        <v>40205.6134</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1049702.49891096</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F110" t="n">
-        <v>10</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-1049692.49891096</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C111" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D111" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E111" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F111" t="n">
-        <v>528</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-1050220.49891096</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C112" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D112" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E112" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F112" t="n">
-        <v>61438.8253</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1111659.32421096</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E113" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F113" t="n">
-        <v>519.4372</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1111139.88701096</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3150.238</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1107989.64901096</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2030.2551</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1110019.90411096</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C116" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>23351.0306</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-1086668.87351096</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C117" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D117" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E117" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F117" t="n">
-        <v>3076.7153</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-1089745.58881096</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C118" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D118" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E118" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F118" t="n">
-        <v>5322</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-1084423.58881096</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>123.5241</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-1084300.06471096</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C120" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>7948.1456</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-1092248.21031096</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2772.7272</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1089475.48311096</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C122" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E122" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>18533.6039</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1108009.08701096</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C123" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F123" t="n">
-        <v>28599.7452</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1079409.34181096</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>7493.9607</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-1086903.30251096</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>567.6599</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1087470.96241096</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D126" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E126" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F126" t="n">
-        <v>87811.5907</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-999659.3717109601</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C127" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F127" t="n">
-        <v>37516.0331</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1037175.40481096</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C128" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D128" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E128" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F128" t="n">
-        <v>16062</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1021113.40481096</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C129" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D129" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E129" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F129" t="n">
-        <v>16062</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1037175.40481096</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>38672.1014</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-998503.30341096</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C131" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D131" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E131" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F131" t="n">
-        <v>20.8791</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-998524.18251096</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D132" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F132" t="n">
-        <v>13338.5395</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-985185.6430109601</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E133" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>5942.8685</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-991128.5115109601</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C134" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E134" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>90149.6972</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1081278.20871096</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C135" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D135" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F135" t="n">
-        <v>10</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-1081268.20871096</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-1082268.20871096</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D137" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E137" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F137" t="n">
-        <v>10</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-1082258.20871096</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C138" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D138" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E138" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F138" t="n">
-        <v>13947.7345</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1096205.94321096</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D139" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E139" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5400.0966</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1090805.84661096</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27</v>
-      </c>
-      <c r="E140" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F140" t="n">
-        <v>25398.6295</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1065407.21711096</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5570,10 +5290,14 @@
         <v>-1065407.21711096</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>27</v>
+      </c>
+      <c r="J141" t="n">
+        <v>26.7</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5585,6 +5309,6 @@
       <c r="M141" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest CHR.xlsx
+++ b/BackTest/2019-10-29 BackTest CHR.xlsx
@@ -2035,14 +2035,10 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
@@ -2075,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2114,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2183,14 +2167,10 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>27</v>
-      </c>
-      <c r="J54" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2223,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>27</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>27</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2301,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>27</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2337,19 +2299,11 @@
         <v>-593860.84596728</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>27</v>
-      </c>
-      <c r="J58" t="n">
-        <v>27</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>27</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2417,19 +2365,11 @@
         <v>-595974.35246728</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J60" t="n">
-        <v>27</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2458,19 +2398,11 @@
         <v>-595961.97336728</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>27</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2499,19 +2431,11 @@
         <v>-595961.97336728</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J62" t="n">
-        <v>27</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2540,19 +2464,11 @@
         <v>-562625.60376728</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J63" t="n">
-        <v>27</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2584,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>27</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2623,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>27</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2662,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>27</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2698,19 +2596,11 @@
         <v>-524496.55296728</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>27</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2739,19 +2629,11 @@
         <v>-524496.55296728</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J68" t="n">
-        <v>27</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2780,19 +2662,11 @@
         <v>-533688.29056728</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>27</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2821,19 +2695,11 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>27</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2862,19 +2728,11 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>27</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2903,19 +2761,11 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>27</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2947,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>27</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2983,19 +2827,11 @@
         <v>-527908.05736728</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>27</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3024,19 +2860,11 @@
         <v>-549770.28686728</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>27</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>27</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3104,19 +2926,11 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J77" t="n">
-        <v>27</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3145,19 +2959,11 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J78" t="n">
-        <v>27</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3186,19 +2992,11 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J79" t="n">
-        <v>27</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3227,19 +3025,11 @@
         <v>-363125.09336728</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>27</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3271,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>27</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3310,20 +3094,12 @@
         <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>27</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>1.143148148148148</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.030075187969925</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3381,7 +3157,7 @@
         <v>-347028.88671096</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3414,7 +3190,7 @@
         <v>-434793.7585109599</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3447,7 +3223,7 @@
         <v>-409857.4157109599</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3480,7 +3256,7 @@
         <v>-554677.22511096</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3513,7 +3289,7 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3546,7 +3322,7 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3579,7 +3355,7 @@
         <v>-686225.19721096</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3612,7 +3388,7 @@
         <v>-686247.44721096</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3645,7 +3421,7 @@
         <v>-898374.86051096</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4107,10 +3883,14 @@
         <v>-951735.6912109602</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>27.3</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -4143,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4176,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4209,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4242,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4275,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4308,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4341,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4374,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4407,8 +4235,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4440,8 +4274,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4473,8 +4313,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4506,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4539,8 +4391,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4572,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4605,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4638,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4671,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4704,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4737,8 +4625,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4767,11 +4661,19 @@
         <v>-999659.3717109601</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4803,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4836,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4869,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4935,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4968,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5001,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5034,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5067,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5100,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5130,15 +5092,17 @@
         <v>-1082258.20871096</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5167,17 +5131,15 @@
         <v>-1096205.94321096</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5214,11 +5176,11 @@
         <v>26.8</v>
       </c>
       <c r="J139" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5255,11 +5217,11 @@
         <v>26.9</v>
       </c>
       <c r="J140" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5296,7 +5258,7 @@
         <v>27</v>
       </c>
       <c r="J141" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>

--- a/BackTest/2019-10-29 BackTest CHR.xlsx
+++ b/BackTest/2019-10-29 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16018.9524</v>
       </c>
       <c r="G2" t="n">
-        <v>-336797.7322672801</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>8155.1407</v>
       </c>
       <c r="G3" t="n">
-        <v>-336797.7322672801</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>9096.7747</v>
       </c>
       <c r="G4" t="n">
-        <v>-336797.7322672801</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4100.4016</v>
       </c>
       <c r="G5" t="n">
-        <v>-336797.7322672801</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>290</v>
       </c>
       <c r="G6" t="n">
-        <v>-337087.7322672801</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>59.8107</v>
       </c>
       <c r="G7" t="n">
-        <v>-337087.7322672801</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1296.8252</v>
       </c>
       <c r="G8" t="n">
-        <v>-337087.7322672801</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>5291.8982</v>
       </c>
       <c r="G9" t="n">
-        <v>-337087.7322672801</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>25.8175</v>
       </c>
       <c r="G10" t="n">
-        <v>-337061.91476728</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>-337061.91476728</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4072.1459</v>
       </c>
       <c r="G12" t="n">
-        <v>-341134.06066728</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>72181.9578</v>
       </c>
       <c r="G13" t="n">
-        <v>-341134.06066728</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>18294.4276</v>
       </c>
       <c r="G14" t="n">
-        <v>-359428.48826728</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>4885.9243</v>
       </c>
       <c r="G15" t="n">
-        <v>-364314.4125672801</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>25000</v>
       </c>
       <c r="G16" t="n">
-        <v>-339314.4125672801</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>-339302.4125672801</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>50397.9696</v>
       </c>
       <c r="G18" t="n">
-        <v>-389700.3821672801</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>16.4552</v>
       </c>
       <c r="G19" t="n">
-        <v>-389700.3821672801</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7647.9104</v>
       </c>
       <c r="G20" t="n">
-        <v>-389700.3821672801</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>20619.8507</v>
       </c>
       <c r="G21" t="n">
-        <v>-389700.3821672801</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>37489.1305</v>
       </c>
       <c r="G22" t="n">
-        <v>-389700.3821672801</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>17383.4803</v>
       </c>
       <c r="G23" t="n">
-        <v>-389700.3821672801</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>31180.8966</v>
       </c>
       <c r="G24" t="n">
-        <v>-389700.3821672801</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>35422.5001</v>
       </c>
       <c r="G25" t="n">
-        <v>-425122.8822672801</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>99660.4958</v>
       </c>
       <c r="G26" t="n">
-        <v>-425122.8822672801</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>879.6296</v>
       </c>
       <c r="G27" t="n">
-        <v>-424243.2526672801</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1508.3444</v>
       </c>
       <c r="G28" t="n">
-        <v>-424243.2526672801</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>45087.5005</v>
       </c>
       <c r="G29" t="n">
-        <v>-469330.7531672801</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1328.4925</v>
       </c>
       <c r="G30" t="n">
-        <v>-468002.2606672801</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2249</v>
       </c>
       <c r="G31" t="n">
-        <v>-470251.2606672801</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2169</v>
       </c>
       <c r="G32" t="n">
-        <v>-470251.2606672801</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2171</v>
       </c>
       <c r="G33" t="n">
-        <v>-470251.2606672801</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,19 @@
         <v>2117</v>
       </c>
       <c r="G34" t="n">
-        <v>-470251.2606672801</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1437,21 @@
         <v>2135</v>
       </c>
       <c r="G35" t="n">
-        <v>-470251.2606672801</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1473,21 @@
         <v>40213.4543</v>
       </c>
       <c r="G36" t="n">
-        <v>-470251.2606672801</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1509,21 @@
         <v>4711</v>
       </c>
       <c r="G37" t="n">
-        <v>-470251.2606672801</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1545,21 @@
         <v>49.6301</v>
       </c>
       <c r="G38" t="n">
-        <v>-470201.6305672801</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1581,21 @@
         <v>14990.9688</v>
       </c>
       <c r="G39" t="n">
-        <v>-470201.6305672801</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1617,23 @@
         <v>6664.2832</v>
       </c>
       <c r="G40" t="n">
-        <v>-470201.6305672801</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I40" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1655,23 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-470211.6305672801</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1693,23 @@
         <v>67.8481</v>
       </c>
       <c r="G42" t="n">
-        <v>-470143.7824672801</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1731,23 @@
         <v>4190.3799</v>
       </c>
       <c r="G43" t="n">
-        <v>-474334.1623672801</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1769,23 @@
         <v>27484.1175</v>
       </c>
       <c r="G44" t="n">
-        <v>-474334.1623672801</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1807,23 @@
         <v>1611.0459</v>
       </c>
       <c r="G45" t="n">
-        <v>-472723.1164672801</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I45" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1845,23 @@
         <v>129.1449</v>
       </c>
       <c r="G46" t="n">
-        <v>-472723.1164672801</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1883,23 @@
         <v>19229.2073</v>
       </c>
       <c r="G47" t="n">
-        <v>-472723.1164672801</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1921,23 @@
         <v>18646.662</v>
       </c>
       <c r="G48" t="n">
-        <v>-491369.7784672801</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1959,23 @@
         <v>4947.5671</v>
       </c>
       <c r="G49" t="n">
-        <v>-491369.7784672801</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1997,23 @@
         <v>42.3944</v>
       </c>
       <c r="G50" t="n">
-        <v>-491327.3840672801</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2035,21 @@
         <v>16436.8518</v>
       </c>
       <c r="G51" t="n">
-        <v>-491327.3840672801</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2071,21 @@
         <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>-491327.3840672801</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2107,21 @@
         <v>1376.4574</v>
       </c>
       <c r="G53" t="n">
-        <v>-491327.3840672801</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2143,21 @@
         <v>754.5555000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>-491327.3840672801</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2179,21 @@
         <v>78545.16250000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-569872.5465672801</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2215,21 @@
         <v>25</v>
       </c>
       <c r="G56" t="n">
-        <v>-569847.5465672801</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2251,23 @@
         <v>12.3333</v>
       </c>
       <c r="G57" t="n">
-        <v>-569835.21326728</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2289,21 @@
         <v>24025.6327</v>
       </c>
       <c r="G58" t="n">
-        <v>-593860.84596728</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2325,23 @@
         <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>-592860.84596728</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>26.6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2363,23 @@
         <v>3113.5065</v>
       </c>
       <c r="G60" t="n">
-        <v>-595974.35246728</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I60" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2401,23 @@
         <v>12.3791</v>
       </c>
       <c r="G61" t="n">
-        <v>-595961.97336728</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>26.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2439,23 @@
         <v>3177.0262</v>
       </c>
       <c r="G62" t="n">
-        <v>-595961.97336728</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2477,23 @@
         <v>33336.3696</v>
       </c>
       <c r="G63" t="n">
-        <v>-562625.60376728</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2515,23 @@
         <v>43409.6646</v>
       </c>
       <c r="G64" t="n">
-        <v>-519215.93916728</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2553,23 @@
         <v>1406.8044</v>
       </c>
       <c r="G65" t="n">
-        <v>-520622.74356728</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2591,23 @@
         <v>3473.8094</v>
       </c>
       <c r="G66" t="n">
-        <v>-524096.55296728</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2629,23 @@
         <v>400</v>
       </c>
       <c r="G67" t="n">
-        <v>-524496.55296728</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="I67" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2667,23 @@
         <v>9580.7613</v>
       </c>
       <c r="G68" t="n">
-        <v>-524496.55296728</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I68" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2705,23 @@
         <v>9191.7376</v>
       </c>
       <c r="G69" t="n">
-        <v>-533688.29056728</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="I69" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2743,23 @@
         <v>4908.0093</v>
       </c>
       <c r="G70" t="n">
-        <v>-528780.28126728</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>26.6</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2781,23 @@
         <v>10400</v>
       </c>
       <c r="G71" t="n">
-        <v>-528780.28126728</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2819,23 @@
         <v>23174.8134</v>
       </c>
       <c r="G72" t="n">
-        <v>-528780.28126728</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2857,23 @@
         <v>16425.1866</v>
       </c>
       <c r="G73" t="n">
-        <v>-528780.28126728</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2895,21 @@
         <v>872.2239</v>
       </c>
       <c r="G74" t="n">
-        <v>-527908.05736728</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2931,21 @@
         <v>21862.2295</v>
       </c>
       <c r="G75" t="n">
-        <v>-549770.28686728</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2967,21 @@
         <v>6844.1405</v>
       </c>
       <c r="G76" t="n">
-        <v>-556614.42736728</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3003,23 @@
         <v>9328.358200000001</v>
       </c>
       <c r="G77" t="n">
-        <v>-556614.42736728</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>26.8</v>
+      </c>
+      <c r="I77" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3041,21 @@
         <v>9184.6849</v>
       </c>
       <c r="G78" t="n">
-        <v>-556614.42736728</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3077,21 @@
         <v>54.6788</v>
       </c>
       <c r="G79" t="n">
-        <v>-556614.42736728</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3113,21 @@
         <v>193489.334</v>
       </c>
       <c r="G80" t="n">
-        <v>-363125.09336728</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3149,21 @@
         <v>113000</v>
       </c>
       <c r="G81" t="n">
-        <v>-250125.09336728</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3185,21 @@
         <v>71909.87880000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-250125.09336728</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3221,21 @@
         <v>65.5421</v>
       </c>
       <c r="G83" t="n">
-        <v>-250190.63546728</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3257,21 @@
         <v>96838.25124368</v>
       </c>
       <c r="G84" t="n">
-        <v>-347028.88671096</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3293,21 @@
         <v>87764.87179999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-434793.7585109599</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3329,23 @@
         <v>24936.3428</v>
       </c>
       <c r="G86" t="n">
-        <v>-409857.4157109599</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1.107359550561798</v>
+      </c>
       <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>1.02621722846442</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3367,15 @@
         <v>144819.8094</v>
       </c>
       <c r="G87" t="n">
-        <v>-554677.22511096</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3397,15 @@
         <v>131537.9721</v>
       </c>
       <c r="G88" t="n">
-        <v>-686215.19721096</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3427,15 @@
         <v>95061.9424</v>
       </c>
       <c r="G89" t="n">
-        <v>-686215.19721096</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3457,15 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>-686225.19721096</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3487,15 @@
         <v>22.25</v>
       </c>
       <c r="G91" t="n">
-        <v>-686247.44721096</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3517,15 @@
         <v>212127.4133</v>
       </c>
       <c r="G92" t="n">
-        <v>-898374.86051096</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3547,15 @@
         <v>91936.3606</v>
       </c>
       <c r="G93" t="n">
-        <v>-806438.49991096</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3577,15 @@
         <v>58449.2512</v>
       </c>
       <c r="G94" t="n">
-        <v>-864887.75111096</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3607,15 @@
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>-864876.75111096</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3637,15 @@
         <v>57186.0218</v>
       </c>
       <c r="G96" t="n">
-        <v>-922062.77291096</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3667,15 @@
         <v>27538.6264</v>
       </c>
       <c r="G97" t="n">
-        <v>-894524.1465109601</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3697,15 @@
         <v>40328.3794</v>
       </c>
       <c r="G98" t="n">
-        <v>-894524.1465109601</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3727,15 @@
         <v>54080.2362</v>
       </c>
       <c r="G99" t="n">
-        <v>-948604.3827109601</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3757,15 @@
         <v>15882.95</v>
       </c>
       <c r="G100" t="n">
-        <v>-948604.3827109601</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3787,15 @@
         <v>1161.3085</v>
       </c>
       <c r="G101" t="n">
-        <v>-949765.6912109602</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3817,15 @@
         <v>672.422</v>
       </c>
       <c r="G102" t="n">
-        <v>-949765.6912109602</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3847,15 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>-949755.6912109602</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3877,15 @@
         <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>-950755.6912109602</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3907,15 @@
         <v>2126.9704</v>
       </c>
       <c r="G105" t="n">
-        <v>-948628.7208109602</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,22 +3937,15 @@
         <v>3106.9704</v>
       </c>
       <c r="G106" t="n">
-        <v>-951735.6912109602</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3917,24 +3967,15 @@
         <v>98683.4145</v>
       </c>
       <c r="G107" t="n">
-        <v>-1050419.10571096</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3956,24 +3997,15 @@
         <v>716.6068</v>
       </c>
       <c r="G108" t="n">
-        <v>-1049702.49891096</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3995,24 +4027,15 @@
         <v>40205.6134</v>
       </c>
       <c r="G109" t="n">
-        <v>-1049702.49891096</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4034,24 +4057,15 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-1049692.49891096</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4073,24 +4087,15 @@
         <v>528</v>
       </c>
       <c r="G111" t="n">
-        <v>-1050220.49891096</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4112,24 +4117,15 @@
         <v>61438.8253</v>
       </c>
       <c r="G112" t="n">
-        <v>-1111659.32421096</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4151,24 +4147,15 @@
         <v>519.4372</v>
       </c>
       <c r="G113" t="n">
-        <v>-1111139.88701096</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4190,24 +4177,15 @@
         <v>3150.238</v>
       </c>
       <c r="G114" t="n">
-        <v>-1107989.64901096</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4229,24 +4207,15 @@
         <v>2030.2551</v>
       </c>
       <c r="G115" t="n">
-        <v>-1110019.90411096</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4268,24 +4237,15 @@
         <v>23351.0306</v>
       </c>
       <c r="G116" t="n">
-        <v>-1086668.87351096</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4307,24 +4267,15 @@
         <v>3076.7153</v>
       </c>
       <c r="G117" t="n">
-        <v>-1089745.58881096</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4346,24 +4297,15 @@
         <v>5322</v>
       </c>
       <c r="G118" t="n">
-        <v>-1084423.58881096</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4385,24 +4327,15 @@
         <v>123.5241</v>
       </c>
       <c r="G119" t="n">
-        <v>-1084300.06471096</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4424,24 +4357,15 @@
         <v>7948.1456</v>
       </c>
       <c r="G120" t="n">
-        <v>-1092248.21031096</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4463,24 +4387,15 @@
         <v>2772.7272</v>
       </c>
       <c r="G121" t="n">
-        <v>-1089475.48311096</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4502,24 +4417,15 @@
         <v>18533.6039</v>
       </c>
       <c r="G122" t="n">
-        <v>-1108009.08701096</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4541,24 +4447,15 @@
         <v>28599.7452</v>
       </c>
       <c r="G123" t="n">
-        <v>-1079409.34181096</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4580,24 +4477,15 @@
         <v>7493.9607</v>
       </c>
       <c r="G124" t="n">
-        <v>-1086903.30251096</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4619,24 +4507,15 @@
         <v>567.6599</v>
       </c>
       <c r="G125" t="n">
-        <v>-1087470.96241096</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4658,26 +4537,15 @@
         <v>87811.5907</v>
       </c>
       <c r="G126" t="n">
-        <v>-999659.3717109601</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4699,24 +4567,15 @@
         <v>37516.0331</v>
       </c>
       <c r="G127" t="n">
-        <v>-1037175.40481096</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4738,24 +4597,15 @@
         <v>16062</v>
       </c>
       <c r="G128" t="n">
-        <v>-1021113.40481096</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4777,24 +4627,15 @@
         <v>16062</v>
       </c>
       <c r="G129" t="n">
-        <v>-1037175.40481096</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4816,24 +4657,15 @@
         <v>38672.1014</v>
       </c>
       <c r="G130" t="n">
-        <v>-998503.30341096</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4855,24 +4687,15 @@
         <v>20.8791</v>
       </c>
       <c r="G131" t="n">
-        <v>-998524.18251096</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4894,24 +4717,15 @@
         <v>13338.5395</v>
       </c>
       <c r="G132" t="n">
-        <v>-985185.6430109601</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4933,24 +4747,15 @@
         <v>5942.8685</v>
       </c>
       <c r="G133" t="n">
-        <v>-991128.5115109601</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4972,24 +4777,15 @@
         <v>90149.6972</v>
       </c>
       <c r="G134" t="n">
-        <v>-1081278.20871096</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5011,24 +4807,15 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>-1081268.20871096</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5050,24 +4837,15 @@
         <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>-1082268.20871096</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5089,24 +4867,15 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>-1082258.20871096</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5128,24 +4897,15 @@
         <v>13947.7345</v>
       </c>
       <c r="G138" t="n">
-        <v>-1096205.94321096</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5167,26 +4927,15 @@
         <v>5400.0966</v>
       </c>
       <c r="G139" t="n">
-        <v>-1090805.84661096</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J139" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5208,26 +4957,15 @@
         <v>25398.6295</v>
       </c>
       <c r="G140" t="n">
-        <v>-1065407.21711096</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5249,26 +4987,15 @@
         <v>2555.3765</v>
       </c>
       <c r="G141" t="n">
-        <v>-1065407.21711096</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>27</v>
-      </c>
-      <c r="J141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
